--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t xml:space="preserve">Publish ID</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">3179M</t>
   </si>
   <si>
-    <t xml:space="preserve">Focus</t>
+    <t xml:space="preserve">Planned</t>
   </si>
   <si>
     <t xml:space="preserve">Battletoads</t>
@@ -136,19 +136,16 @@
     <t xml:space="preserve">Gauntlet</t>
   </si>
   <si>
-    <t xml:space="preserve">It’s guantlet!</t>
+    <t xml:space="preserve">It’s guantlet! Desyncs inconsistently</t>
   </si>
   <si>
     <t xml:space="preserve">4349M</t>
   </si>
   <si>
-    <t xml:space="preserve">Planned</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marble Madness</t>
   </si>
   <si>
-    <t xml:space="preserve">Madness indeed…</t>
+    <t xml:space="preserve">Desyncs consistently, ball moves too far to the left and falls off the platform on first level.</t>
   </si>
   <si>
     <t xml:space="preserve">4386M</t>
@@ -157,7 +154,7 @@
     <t xml:space="preserve">Batman</t>
   </si>
   <si>
-    <t xml:space="preserve">Last verified in 2008!</t>
+    <t xml:space="preserve">TheDot said this verifies, but I experience consistent desyncs.</t>
   </si>
   <si>
     <t xml:space="preserve">4104M</t>
@@ -187,12 +184,12 @@
     <t xml:space="preserve">Zelda II: The Adventure of Link</t>
   </si>
   <si>
-    <t xml:space="preserve">Previous verifications may be false!</t>
-  </si>
-  <si>
     <t xml:space="preserve">4234M</t>
   </si>
   <si>
+    <t xml:space="preserve">warp glitch</t>
+  </si>
+  <si>
     <t xml:space="preserve">4226M</t>
   </si>
   <si>
@@ -235,10 +232,172 @@
     <t xml:space="preserve">Another playaround category; plus it’s football!</t>
   </si>
   <si>
-    <t xml:space="preserve">1649M</t>
+    <t xml:space="preserve">4410M</t>
   </si>
   <si>
     <t xml:space="preserve">Mega Man 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs on Woodman stage, first screen transition glitch. Glitch is performed slightly differently on this compared to older verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2652M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously verified but lacked video evidence until now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3254M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warpless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostbusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistent enemies (possibly needs initial RAM set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1421M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizardry II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires cartridge in order to start playback without resetting (might be able to start from everdrive menu if proper inputs prepended)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1352M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, unknown cause</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2792M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Waldo Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3591M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North and South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2211M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archon: The Light and the Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different RNG, but consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2699M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydlide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Must start from power-on/everdrive-menu. Reset vector is after the splash screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, after player goes diving the enemies are consisten, but not in the same positions as the encoded video. (+1/+2 frame doesn’t change anything)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1825M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinball Quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, after talking with the ghost. Ball is hit into the left tree and then drains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3194M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Putt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1228M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, immediately. Might be wrong ROM or needs blank frames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3135M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmo Police: Galivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3995M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, at first significant screen glitch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3943M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required ViGreyTech’s fixed dump script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3613M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bionic Commando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 8:52 in encoded video. Menu option should be right to “Transfer” but doesn’t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3028M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. And a different verified run also desyncs. Possible problem with replay device.</t>
   </si>
 </sst>
 </file>
@@ -563,10 +722,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ24"/>
+  <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,7 +734,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="99.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="142.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="4" width="11.52"/>
   </cols>
   <sheetData>
@@ -734,7 +893,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -751,178 +910,501 @@
         <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>49</v>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>55</v>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>58</v>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
   <si>
     <t xml:space="preserve">Publish ID</t>
   </si>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">2652M</t>
   </si>
   <si>
-    <t xml:space="preserve">Previously verified but lacked video evidence until now</t>
+    <t xml:space="preserve">2021-03-25 Previously verified but lacked video evidence until now</t>
   </si>
   <si>
     <t xml:space="preserve">3254M</t>
@@ -379,7 +379,7 @@
     <t xml:space="preserve">Arkanoid</t>
   </si>
   <si>
-    <t xml:space="preserve">Required ViGreyTech’s fixed dump script</t>
+    <t xml:space="preserve">2021-03-29 Required ViGreyTech’s fixed dump script</t>
   </si>
   <si>
     <t xml:space="preserve">3613M</t>
@@ -398,14 +398,67 @@
   </si>
   <si>
     <t xml:space="preserve">Desyncs. And a different verified run also desyncs. Possible problem with replay device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streemerz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superb Joe mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs semi-consistent. If it reaches first level, it desyncs exactly like “New PPU” mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streeeeemerz mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. Either selects wrong options if SRAM isn’t clear. Or desyncs at 2:35 (encode time).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4353M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Gaiden II: The Dark Sword of Chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2421M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1546M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimmick!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -552,7 +605,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -581,8 +634,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -722,10 +783,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ43"/>
+  <dimension ref="A1:AMJ49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -769,6 +830,9 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="E2" s="7" t="n">
+        <v>44245</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
@@ -783,6 +847,9 @@
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="7" t="n">
+        <v>44246</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -811,6 +878,9 @@
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E5" s="7" t="n">
+        <v>44251</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -873,6 +943,9 @@
       <c r="D9" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E9" s="7" t="n">
+        <v>44251</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -889,7 +962,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -988,6 +1061,9 @@
       <c r="D17" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E17" s="7" t="n">
+        <v>44282</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1002,6 +1078,9 @@
       <c r="D18" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="E18" s="7" t="n">
+        <v>44281</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1016,6 +1095,9 @@
       <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E19" s="7" t="n">
+        <v>44284</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1123,6 +1205,9 @@
       <c r="D26" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="E26" s="7" t="n">
+        <v>44280</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -1188,6 +1273,9 @@
       <c r="D30" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E30" s="7" t="n">
+        <v>44282</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -1202,6 +1290,9 @@
       <c r="D31" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="E31" s="7" t="n">
+        <v>44282</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -1405,6 +1496,108 @@
       </c>
       <c r="E43" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="7" t="n">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="305">
   <si>
     <t xml:space="preserve">Publish ID</t>
   </si>
@@ -34,6 +34,12 @@
     <t xml:space="preserve">Category</t>
   </si>
   <si>
+    <t xml:space="preserve">Emu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Attempt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
@@ -49,6 +55,12 @@
     <t xml:space="preserve">pacifist, no subweapons</t>
   </si>
   <si>
+    <t xml:space="preserve">FCEUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-18</t>
+  </si>
+  <si>
     <t xml:space="preserve">4210M</t>
   </si>
   <si>
@@ -58,6 +70,9 @@
     <t xml:space="preserve">Mode B</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-02-19</t>
+  </si>
+  <si>
     <t xml:space="preserve">3000M</t>
   </si>
   <si>
@@ -67,7 +82,7 @@
     <t xml:space="preserve">Mickey Mousecapade</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs, enemies clearly are non-deterministic</t>
+    <t xml:space="preserve">Desyncs, enemies clearly are non-deterministic (RNG proven to use some or all uninitialized RAM)</t>
   </si>
   <si>
     <t xml:space="preserve">4133M</t>
@@ -76,7 +91,10 @@
     <t xml:space="preserve">Jackal</t>
   </si>
   <si>
-    <t xml:space="preserve">2 player</t>
+    <t xml:space="preserve">2 players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-02-24</t>
   </si>
   <si>
     <t xml:space="preserve">3979M</t>
@@ -97,7 +115,10 @@
     <t xml:space="preserve">any%</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs, fails at different points each attempt, seems to work better when one frame is deleted from start of TAS</t>
+    <t xml:space="preserve">2021-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires resets!  Requires initialized RAM!</t>
   </si>
   <si>
     <t xml:space="preserve">3226M</t>
@@ -106,9 +127,6 @@
     <t xml:space="preserve">game end glitch</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs, fails at different points each attempt</t>
-  </si>
-  <si>
     <t xml:space="preserve">3289M</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t xml:space="preserve">Monopoly</t>
   </si>
   <si>
+    <t xml:space="preserve">Bizhawk</t>
+  </si>
+  <si>
     <t xml:space="preserve">717M</t>
   </si>
   <si>
@@ -175,7 +196,7 @@
     <t xml:space="preserve">The Legend of Zelda: Triforce of the Gods</t>
   </si>
   <si>
-    <t xml:space="preserve">Bootleg, unknown N8 compatibility</t>
+    <t xml:space="preserve">Bootleg, not compatible on N8 Everdrive</t>
   </si>
   <si>
     <t xml:space="preserve">4367M</t>
@@ -184,43 +205,745 @@
     <t xml:space="preserve">Zelda II: The Adventure of Link</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">4234M</t>
   </si>
   <si>
     <t xml:space="preserve">warp glitch</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">4226M</t>
   </si>
   <si>
     <t xml:space="preserve">Mike Tyson’s Punch-Out!!</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3789M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey Kong, DK Jr., DK 3, and DK Jr. Math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-game TAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1013M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River City Ransom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playaround</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also has 2 other categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4410M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Man 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs on Woodman stage, first screen transition glitch. Glitch is performed slightly differently on this compared to older verification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2652M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previously verified but lacked video evidence until now</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3254M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warpless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1956M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghostbusters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistent enemies (possibly needs initial RAM set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1421M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizardry II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires cartridge in order to start playback without resetting (might be able to start from everdrive menu if proper inputs prepended)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1352M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey Kong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. The game initializes its own RAM during the 3rd/4th lag frame. Possible emulator inaccuracy causing different game behavior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2792M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Great Waldo Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3591M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North and South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2211M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archon: The Light and the Dark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different RNG, but consistent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2699M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydlide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(start from everdrive, requires START + 17 blanks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">744M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaws</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, after player goes diving the enemies are consisten, but not in the same positions as the encoded video. (+1/+2 frame doesn’t change anything)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1825M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinball Quest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, after talking with the ghost. Ball is hit into the left tree and then drains.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3194M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mini Putt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1228M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, immediately. Might be wrong ROM or needs blank frames.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1915M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana Jones and the Last Crusade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3135M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmo Police: Galivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3995M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, at first significant screen glitch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3943M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkanoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required ViGreyTech’s fixed dump script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3613M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bionic Commando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 8:52 in encoded video. Menu option should be right to “Transfer” but doesn’t.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3028M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. And a different verified run also desyncs. Possible problem with replay device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streemerz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superb Joe mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs semi-consistent. If it reaches first level, it desyncs exactly like “New PPU” mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2923M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streeeeemerz mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. Either selects wrong options if SRAM isn’t clear. Or desyncs at 2:35 (encode time).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3726M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4353M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Gaiden II: The Dark Sword of Chaos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2421M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1546M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimmick!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1786M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle Kid: Fortress of Peril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at about 11:23 (encode time), boss rains down lightning instead of a purple ball.  Request by EZGames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4093M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pause glitch</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desyncs consistently, at frame #8507. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://ptb.discord.com/channels/280806848909541376/799578989965737994/826928472072650762</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">4422M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saiyuuki World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request by xxEzraBxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3804M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Takeshi no Chousenjou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request by EZGames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3942M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip ‘n Dale: Rescue Rangers 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3223M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Gaiden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4409M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 1:02 (encode time) due to being damaged.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4420M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, after main menu. Requested by xxEzraBxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4414M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventures of Tom Sawyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, semi-consistently. Bats during 5:57 to 6:12 drop down at random. It may sync if it can get past these bats, after enough tries. Requested by xxEzraBxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4034M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donald Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. (start from everdrive, requires START + 64 blanks) Requested by EZGames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4385M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pizza Pop!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 0:44 (encode time), player gets hit by second cat and injured instead of the player hitting the cat. Requested by xxEzraBxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7063S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power Punch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April Fool’s submission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4383M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chack’n Pop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 0:22 (encode time), the purple enemy consistently moves up into the player on console, instead of turning left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7039S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7066S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punch-Out!! No TKO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2507M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Gaiden III: The Ancient Ship of Doom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4313M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2816M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final Fantasy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stairs glitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required reset capability and special dump script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3992M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EarthBound Beginnings (Mother)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required reset capability. Request by ViGreyTech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2079M</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desyncs consistently, at 0:19 (encode time). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2015M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White Mage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desyncs consistently, at 0:54 (encode time). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">7085S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiwi Kraze - A Bird-Brained Adventure!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1816M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chip ‘n Dale: Rescue Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3010M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Man 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs at boss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4296M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Warrior II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=aEagh3u7G40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. AISSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7050S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King’s Quest V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2809M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultima: Quest of the Avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Requires resets!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4064M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Warrior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3093M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Warrior III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item glitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">931M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs on emulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3184M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragon Warrior IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2627M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hard Relay Mario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4370M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M.C. Kids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all levels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4282M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4344M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, enemies are not as the same location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4340M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4291M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kid Icarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4280M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadow of the Ninja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, enemies are not in the expected location, consistently.</t>
+  </si>
+  <si>
     <t xml:space="preserve">4258M</t>
   </si>
   <si>
     <t xml:space="preserve">Baseball</t>
   </si>
   <si>
-    <t xml:space="preserve">3789M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donkey Kong, DK Jr., DK 3, and DK Jr. Math</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multi-game TAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1013M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">River City Ransom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">playaround</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also has 2 other categories</t>
+    <t xml:space="preserve">4255M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Kong 2: Ikari no Megaton Punch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3690M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3-D Battles of WorldRunner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6855S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clu Clu Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Requires resets!  Rejected for stupid reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2161M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6859S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. SSASSA+TEYIUT+AISSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected for stupid reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">891M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Karate Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous publication reverified, however this one desyncs consistently at beginning of second fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4046M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rush’n Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous publication verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3870M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney’s The Little Mermaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3896M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=5JhLvHEi9Ys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7102S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsume ga Tooru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7103S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7109S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1390M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blues Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs in emulator!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2068M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Week of Garfield</t>
   </si>
   <si>
     <t xml:space="preserve">1039M</t>
@@ -229,226 +952,37 @@
     <t xml:space="preserve">Tecmo Super Bowl</t>
   </si>
   <si>
-    <t xml:space="preserve">Another playaround category; plus it’s football!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4410M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mega Man 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs on Woodman stage, first screen transition glitch. Glitch is performed slightly differently on this compared to older verification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2652M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-25 Previously verified but lacked video evidence until now</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3254M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">warpless</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1956M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghostbusters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs, inconsistent enemies (possibly needs initial RAM set)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1421M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizardry II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires cartridge in order to start playback without resetting (might be able to start from everdrive menu if proper inputs prepended)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1352M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donkey Kong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs, unknown cause</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2792M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Great Waldo Search</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3591M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North and South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2211M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Archon: The Light and the Dark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different RNG, but consistent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2699M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hydlide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must start from power-on/everdrive-menu. Reset vector is after the splash screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">744M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaws</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs consistently, after player goes diving the enemies are consisten, but not in the same positions as the encoded video. (+1/+2 frame doesn’t change anything)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1825M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pinball Quest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs consistently, after talking with the ghost. Ball is hit into the left tree and then drains.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3194M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mini Putt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs, inconsistently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1228M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs, immediately. Might be wrong ROM or needs blank frames.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1915M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiana Jones and the Last Crusade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3135M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosmo Police: Galivan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3995M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs, at first significant screen glitch.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3943M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arkanoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-03-29 Required ViGreyTech’s fixed dump script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3613M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bionic Commando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs consistently, at 8:52 in encoded video. Menu option should be right to “Transfer” but doesn’t.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3028M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Mario Bros. 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs. And a different verified run also desyncs. Possible problem with replay device.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2422M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streemerz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superb Joe mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs semi-consistent. If it reaches first level, it desyncs exactly like “New PPU” mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2923M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streeeeemerz mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs consistently. Either selects wrong options if SRAM isn’t clear. Or desyncs at 2:35 (encode time).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3726M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 players</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4353M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninja Gaiden II: The Dark Sword of Chaos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2421M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1546M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gimmick!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100%</t>
+    <t xml:space="preserve">Desyncs on console and emulator (using New PPU).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1834M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizardry III: Legacy of Llylgamyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Reset vector different from power-on; will need to test from power-on instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2897M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Pitfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Probably uninitialized RAM issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4057M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockman 2 (Mega Man 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipless</t>
   </si>
 </sst>
 </file>
@@ -457,10 +991,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -496,6 +1030,12 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -605,7 +1145,7 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -618,7 +1158,11 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -630,11 +1174,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -642,7 +1190,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -783,10 +1331,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ49"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -795,842 +1343,2136 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="17.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="142.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="142.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="5" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AMJ1" s="0"/>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>44245</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>44246</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>44251</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>44251</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>36</v>
+      <c r="A11" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="7" t="n">
-        <v>44282</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>44281</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>44284</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>30</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>30</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="7" t="n">
-        <v>44280</v>
+        <v>30</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>30</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>82</v>
+        <v>30</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="9" t="n">
+        <v>44282</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>30</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>44282</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="7" t="n">
-        <v>44282</v>
+        <v>30</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="7" t="n">
-        <v>44282</v>
+        <v>30</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>99</v>
+        <v>30</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>30</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>108</v>
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>111</v>
+        <v>82</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>116</v>
+        <v>30</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>119</v>
+        <v>82</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>122</v>
+        <v>134</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>125</v>
+        <v>137</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>129</v>
+        <v>23</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E47" s="7" t="n">
-        <v>44285</v>
+        <v>148</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>105</v>
+        <v>148</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G64" s="9"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>105</v>
+      <c r="D100" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$B1="Verified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$B1="Unable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>$B1="Unknown"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>$B1="Priority"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>$B1="Focus"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E1048576">
+  <conditionalFormatting sqref="A1:G1048576">
     <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>$B1="Planned"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="G49" r:id="rId1" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/826928472072650762"/>
+    <hyperlink ref="G67" r:id="rId2" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
+    <hyperlink ref="G68" r:id="rId3" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
+    <hyperlink ref="A73" r:id="rId4" display="https://www.youtube.com/watch?v=aEagh3u7G40"/>
+    <hyperlink ref="A98" r:id="rId5" display="https://www.youtube.com/watch?v=5JhLvHEi9Ys"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="403">
   <si>
     <t xml:space="preserve">Publish ID</t>
   </si>
@@ -172,7 +172,10 @@
     <t xml:space="preserve">Batman</t>
   </si>
   <si>
-    <t xml:space="preserve">TheDot said this verifies, but I experience consistent desyncs.</t>
+    <t xml:space="preserve">2021-05-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TheDot said this verifies, but I experience inconsistent desyncs.</t>
   </si>
   <si>
     <t xml:space="preserve">4104M</t>
@@ -374,12 +377,6 @@
   </si>
   <si>
     <t xml:space="preserve">Desyncs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3135M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cosmo Police: Galivan</t>
   </si>
   <si>
     <t xml:space="preserve">3995M</t>
@@ -847,142 +844,439 @@
     <t xml:space="preserve">King Kong 2: Ikari no Megaton Punch</t>
   </si>
   <si>
+    <t xml:space="preserve">4444M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum A presses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6855S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clu Clu Land</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On hold. Requires resets!  Rejected for stupid reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2161M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6859S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mario Bros. SSASSA+TEYIUT+AISSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected for stupid reason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">891M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Karate Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous publication reverified, however this one desyncs consistently at beginning of second fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4046M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rush’n Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previous publication verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3870M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney’s The Little Mermaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3896M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=5JhLvHEi9Ys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7102S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitsume ga Tooru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4451M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7109S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1390M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Blues Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs in emulator!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2068M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Week of Garfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1039M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecmo Super Bowl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs on console and emulator (using New PPU).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1834M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizardry III: Legacy of Llylgamyn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Reset vector different from power-on; will need to test from power-on instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2897M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Pitfall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Probably uninitialized RAM issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4057M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockman 2 (Mega Man 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7112S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Nemo: The Dream Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs. Appears to be uninitialized RAM seeding RNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1549M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mega Man 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at about 1:36 of encode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3360M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castlevania III: Dracula’s Curse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sypha path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will likely desync due to RNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">3690M</t>
   </si>
   <si>
     <t xml:space="preserve">The 3-D Battles of WorldRunner</t>
   </si>
   <si>
-    <t xml:space="preserve">6855S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clu Clu Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs. Requires resets!  Rejected for stupid reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2161M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6859S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Mario Bros. SSASSA+TEYIUT+AISSON</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rejected for stupid reason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">891M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Karate Kid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous publication reverified, however this one desyncs consistently at beginning of second fight.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4046M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rush’n Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previous publication verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3870M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disney’s The Little Mermaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3896M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=5JhLvHEi9Ys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7102S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitsume ga Tooru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7103S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7109S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1390M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Blues Brothers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs in emulator!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2068M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Week of Garfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1039M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecmo Super Bowl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs on console and emulator (using New PPU).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1834M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wizardry III: Legacy of Llylgamyn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs. Reset vector different from power-on; will need to test from power-on instead.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2897M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Pitfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desyncs. Probably uninitialized RAM issue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4057M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rockman 2 (Mega Man 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zipless</t>
+    <t xml:space="preserve">Desyncs consistently, at about 1:15 of encode. Request by EZGames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3868M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Krion Conquest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4102M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who Framed Roger Rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, likely consistently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4443M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1821M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuts &amp; Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1901M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockin’ Kats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, within the first 5 seconds of gameplay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2795M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metal Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4177M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventures of Lolo 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at frame #1713, about 0:30 (encode time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1087M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batman: Return of the Joker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 0:25 (encode time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3230M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bible Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistent animals. Proven: this game seeds RNG with uninitialized RAM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">970M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track &amp; Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resync required, simply add one extra ‘R’ press after the last input. Desyncs with new PPU/RNG without the resync. Also needs second input display.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4143M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventures of Lolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1358M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kung Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3747M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventures of Lolo 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2061M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultima: Exodus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3249M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Bugs Bunny Birthday Blowout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs almost immediately; appears consistent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7120S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double Moon Densetsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at around 5-6 minutes. PPU inaccuracy may be the cause.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3135M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cosmo Police: Galivan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently in emulator, when using New PPU. (Random Init RAM doesn’t appear to affect anything)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1443M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metroid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">low%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently on both console and in emulator (with Random Init RAM).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3073M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pwn Adventure Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">save glitch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3067M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adventure Island III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2635M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treasure Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to test. SRAM must be specific value, not all zeros or all ones. TAS might be resync-able by using a reset in the main menu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7123S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solitaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7125S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4082M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Donkey Kong 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2212M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Bond Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Probably requires initial RAM to be set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2728M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, immediately after start menu passes. Game pauses despite no second start input.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2412M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iron Tank: The Invasion of Normandy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1181M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spider-Man: Return of the Sinister Six</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skate or Die 2: The Search for Double Trouble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs almost immediately. Publication notes the game is infamous for control problems. More research required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">749M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paperboy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. Emulator with New PPU shows very different lag frames, desyncing the tas.</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1288,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1014,6 +1308,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1138,7 +1438,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1158,7 +1458,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,15 +1470,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1190,7 +1490,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1212,7 +1512,7 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <color rgb="00FFFFFF"/>
+        <color rgb="FF000000"/>
       </font>
       <fill>
         <patternFill>
@@ -1331,10 +1631,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G107"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1595,44 +1895,50 @@
         <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F13" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1643,30 +1949,30 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>30</v>
@@ -1675,92 +1981,92 @@
         <v>11</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>30</v>
@@ -1769,113 +2075,113 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>30</v>
@@ -1884,7 +2190,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28" s="9" t="n">
         <v>44282</v>
@@ -1892,13 +2198,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>30</v>
@@ -1907,7 +2213,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G29" s="9" t="n">
         <v>44282</v>
@@ -1915,30 +2221,30 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>30</v>
@@ -1947,944 +2253,950 @@
         <v>11</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>30</v>
+        <v>83</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="D42" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F45" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>153</v>
+        <v>30</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>161</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="G51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G53" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>26</v>
+        <v>172</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F58" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="G58" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F59" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="G59" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G62" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="E62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G64" s="9"/>
+      <c r="G64" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>197</v>
+        <v>30</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>209</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G70" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>216</v>
-      </c>
+      <c r="F71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>217</v>
+      <c r="A72" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E72" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F72" s="4" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="11" t="s">
-        <v>219</v>
+      <c r="A73" s="1" t="s">
+        <v>221</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="F73" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G73" s="9"/>
+        <v>223</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>117</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>230</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="D78" s="3" t="s">
-        <v>235</v>
+        <v>30</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>117</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>158</v>
+        <v>226</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,53 +3207,53 @@
         <v>18</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>30</v>
+        <v>167</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>72</v>
+        <v>248</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>30</v>
@@ -2950,196 +3262,196 @@
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>117</v>
+        <v>246</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>258</v>
+        <v>194</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>85</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="D91" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>264</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>268</v>
+        <v>30</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>30</v>
@@ -3148,44 +3460,44 @@
         <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>30</v>
@@ -3194,21 +3506,21 @@
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>278</v>
+      <c r="A97" s="11" t="s">
+        <v>279</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>30</v>
@@ -3217,41 +3529,38 @@
         <v>11</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11" t="s">
+      <c r="A98" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>283</v>
+        <v>141</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>30</v>
@@ -3260,18 +3569,18 @@
         <v>11</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>142</v>
+        <v>282</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>30</v>
@@ -3280,18 +3589,18 @@
         <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>30</v>
@@ -3300,18 +3609,21 @@
         <v>11</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>286</v>
+        <v>31</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>30</v>
@@ -3322,22 +3634,19 @@
       <c r="F102" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>11</v>
@@ -3345,19 +3654,22 @@
       <c r="F103" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G103" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>11</v>
@@ -3366,44 +3678,44 @@
         <v>31</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>31</v>
+        <v>300</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>30</v>
+        <v>304</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>11</v>
@@ -3411,28 +3723,788 @@
       <c r="F106" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G106" s="2" t="s">
-        <v>301</v>
-      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>304</v>
+        <v>30</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>300</v>
+        <v>284</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3467,11 +4539,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="G49" r:id="rId1" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/826928472072650762"/>
-    <hyperlink ref="G67" r:id="rId2" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
-    <hyperlink ref="G68" r:id="rId3" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
-    <hyperlink ref="A73" r:id="rId4" display="https://www.youtube.com/watch?v=aEagh3u7G40"/>
-    <hyperlink ref="A98" r:id="rId5" display="https://www.youtube.com/watch?v=5JhLvHEi9Ys"/>
+    <hyperlink ref="G48" r:id="rId1" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/826928472072650762"/>
+    <hyperlink ref="G66" r:id="rId2" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
+    <hyperlink ref="G67" r:id="rId3" display="https://ptb.discord.com/channels/280806848909541376/799578989965737994/828167460246388797"/>
+    <hyperlink ref="A72" r:id="rId4" display="https://www.youtube.com/watch?v=aEagh3u7G40"/>
+    <hyperlink ref="A97" r:id="rId5" display="https://www.youtube.com/watch?v=5JhLvHEi9Ys"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/tas-verifications.xlsx
+++ b/tas-verifications.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="522">
   <si>
     <t xml:space="preserve">Publish ID</t>
   </si>
@@ -163,6 +163,9 @@
     <t xml:space="preserve">Marble Madness</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-06-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desyncs consistently, ball moves too far to the left and falls off the platform on first level.</t>
   </si>
   <si>
@@ -172,12 +175,6 @@
     <t xml:space="preserve">Batman</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-05-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TheDot said this verifies, but I experience inconsistent desyncs.</t>
-  </si>
-  <si>
     <t xml:space="preserve">4104M</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
     <t xml:space="preserve">4374M</t>
   </si>
   <si>
+    <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Legend of Zelda: Triforce of the Gods</t>
   </si>
   <si>
@@ -412,7 +412,10 @@
     <t xml:space="preserve">Super Mario Bros. 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs. And a different verified run also desyncs. Possible problem with replay device.</t>
+    <t xml:space="preserve">2021-06-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently</t>
   </si>
   <si>
     <t xml:space="preserve">2422M</t>
@@ -892,6 +895,9 @@
     <t xml:space="preserve">Rush’n Attack</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-06-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">Previous publication verified</t>
   </si>
   <si>
@@ -1057,6 +1063,9 @@
     <t xml:space="preserve">Rockin’ Kats</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-05-16</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desyncs consistently, within the first 5 seconds of gameplay.</t>
   </si>
   <si>
@@ -1117,9 +1126,6 @@
     <t xml:space="preserve">Kung Fu</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs consistently</t>
-  </si>
-  <si>
     <t xml:space="preserve">3747M</t>
   </si>
   <si>
@@ -1267,7 +1273,7 @@
     <t xml:space="preserve">Skate or Die 2: The Search for Double Trouble</t>
   </si>
   <si>
-    <t xml:space="preserve">Desyncs almost immediately. Publication notes the game is infamous for control problems. More research required.</t>
+    <t xml:space="preserve">Desyncs consistently, when entering the sewer.</t>
   </si>
   <si>
     <t xml:space="preserve">749M</t>
@@ -1277,6 +1283,357 @@
   </si>
   <si>
     <t xml:space="preserve">Desyncs consistently. Emulator with New PPU shows very different lag frames, desyncing the tas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3814M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonk’s Adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1321M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yo! Noid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4162M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tengen Tetris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperative, 30 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4124M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4354M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiny Toon Adventures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3892M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Red Hood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Possibly RNG affecting enemies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1071M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninja Crusaders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movie file contains fourscore, need to check if this is a mistake or intended.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3065M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Block pieces are different each attempt. RAM tests in FCEUX don’t appear to make any difference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3026M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snake Rattle N Roll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warpless, 2 players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 1:14 (encode time), player doesn’t move far enough to the left to hit the bell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1694M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">warpless, 1 player</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3002M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremlins 2: The New Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Enemies are in different starting locations each attempt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3004M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sesame Street Countdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3312M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack of the Killer Tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, appears to be inconsistent, tomatoes may start in different locations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3540M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Aladdin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to sync in emulator, despite matching ROM hash and using Dendy as instructed by publication (also tried NTSC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3926M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey Kong Jr.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, at 0:06 (encode time), enemy is in the wrong location, coming into contact with player.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2677S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chessmaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rejected for stupid reason by Nach, despite 46 yes votes). Desyncs inconsistently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2755M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quattro Adventure: Super Robin Hood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to locate matching ROM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2758M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quattro Adventure: Boomerang Kid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1986M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quattro Adventure: Treasure Island Dizzy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, reason unknown. Not sure when to start the playback either (game select menu vs after selection).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">905M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dizzy the Adventurer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1054M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maniac Mansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2732M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Bros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1578M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rygar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3212M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bible Buffet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, first spin is always 3, then 1, whereas the first should be 10. Resync used, given by Spikestuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4094M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BurgerTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Polling times don’t align with typical frame timing (16.66ms). Not DPCM glitch. Polls are unevenly spaced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7149S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Action 52: The Cheetahmen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to run on Everdrive N8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2867M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizards &amp; Warriors III: Kuros: Visions of Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7154S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lode Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all levels?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs semi-inconsistently. Initialized RAM might be a factor, or issues that still exist in Bizhawk 2.6.2 (in NESHawk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2090M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Adventure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, and also has horribly messed up textures on console (could be incompatibility with everdrive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2293M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Where’s Waldo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, immediately when starting the first level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7151S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wit.nes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-06-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3345M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban Champion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently, possibly missing input? PPU maybe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1227M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizardry: Proving Grounds of the Mad Overlord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to run, reset vector different than boot. Must attempt from everdrive menu instead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3176M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegas Dream</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. RNG appears differently, likely requires initializing RAM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2259M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jurassic Park: The Lost World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2175M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donkey Kong 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Enemies appear to be random.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1199M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dungeon Magic: Sword of the Elements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4078M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescue: The Embassy Mission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defender of the Crown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3733M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Arabian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs, inconsistently. Sometimes can’t get past main menu. When it can, then enemies are in the way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2159M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yie Ar Kung-Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. Can’t get past first fight.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3732M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desyncs consistently. First two flying enemies fly into player, killing them.</t>
   </si>
 </sst>
 </file>
@@ -1631,10 +1988,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G179" activeCellId="0" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1886,19 +2243,22 @@
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>30</v>
@@ -1907,38 +2267,35 @@
         <v>11</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
@@ -1949,10 +2306,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>58</v>
@@ -2020,7 +2377,7 @@
         <v>30</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>68</v>
@@ -2411,53 +2768,56 @@
       <c r="D40" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="F40" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="G40" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>23</v>
@@ -2468,31 +2828,31 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>30</v>
@@ -2503,16 +2863,16 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>112</v>
@@ -2520,134 +2880,134 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>147</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G51" s="9"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G52" s="9"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>18</v>
@@ -2659,100 +3019,100 @@
         <v>23</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>8</v>
@@ -2761,42 +3121,42 @@
         <v>61</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>30</v>
@@ -2805,188 +3165,188 @@
         <v>11</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G62" s="9"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G63" s="9"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G68" s="9"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G69" s="9"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G71" s="9"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>30</v>
@@ -2995,25 +3355,25 @@
         <v>11</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G72" s="9"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>118</v>
@@ -3021,56 +3381,56 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>118</v>
@@ -3078,19 +3438,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>118</v>
@@ -3098,33 +3458,33 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>30</v>
@@ -3132,13 +3492,13 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>30</v>
@@ -3147,30 +3507,30 @@
         <v>11</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>118</v>
@@ -3178,13 +3538,13 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>30</v>
@@ -3193,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>118</v>
@@ -3201,7 +3561,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>18</v>
@@ -3210,27 +3570,27 @@
         <v>73</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>30</v>
@@ -3239,7 +3599,7 @@
         <v>11</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>118</v>
@@ -3247,13 +3607,13 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>30</v>
@@ -3262,21 +3622,21 @@
         <v>11</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>23</v>
@@ -3285,41 +3645,41 @@
         <v>11</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>30</v>
@@ -3328,7 +3688,7 @@
         <v>11</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>86</v>
@@ -3336,53 +3696,53 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>30</v>
@@ -3391,44 +3751,44 @@
         <v>11</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="G92" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>30</v>
@@ -3437,21 +3797,21 @@
         <v>11</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>30</v>
@@ -3460,44 +3820,44 @@
         <v>11</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>30</v>
@@ -3506,21 +3866,21 @@
         <v>11</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>30</v>
@@ -3529,38 +3889,38 @@
         <v>11</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>30</v>
@@ -3569,18 +3929,18 @@
         <v>11</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>30</v>
@@ -3589,18 +3949,18 @@
         <v>11</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>30</v>
@@ -3612,18 +3972,18 @@
         <v>31</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>30</v>
@@ -3637,13 +3997,13 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>74</v>
@@ -3655,18 +4015,18 @@
         <v>31</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>34</v>
@@ -3678,18 +4038,18 @@
         <v>31</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>30</v>
@@ -3698,41 +4058,41 @@
         <v>11</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>30</v>
@@ -3741,21 +4101,21 @@
         <v>11</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>30</v>
@@ -3764,64 +4124,64 @@
         <v>11</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>30</v>
@@ -3830,18 +4190,18 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>30</v>
@@ -3850,61 +4210,61 @@
         <v>11</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>30</v>
@@ -3913,41 +4273,41 @@
         <v>11</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>30</v>
@@ -3956,21 +4316,21 @@
         <v>11</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>30</v>
@@ -3979,21 +4339,21 @@
         <v>11</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>30</v>
@@ -4002,21 +4362,21 @@
         <v>11</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>50</v>
+        <v>331</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>30</v>
@@ -4025,21 +4385,21 @@
         <v>11</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>30</v>
@@ -4048,18 +4408,18 @@
         <v>11</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>30</v>
@@ -4068,21 +4428,21 @@
         <v>11</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>30</v>
@@ -4091,18 +4451,18 @@
         <v>11</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>30</v>
@@ -4111,18 +4471,18 @@
         <v>11</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>30</v>
@@ -4131,21 +4491,21 @@
         <v>11</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>30</v>
@@ -4154,64 +4514,64 @@
         <v>11</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D128" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="G128" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>34</v>
@@ -4220,64 +4580,64 @@
         <v>11</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>30</v>
@@ -4286,18 +4646,18 @@
         <v>11</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>30</v>
@@ -4306,41 +4666,41 @@
         <v>11</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>30</v>
@@ -4349,61 +4709,61 @@
         <v>11</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="D137" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="G137" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>30</v>
@@ -4412,21 +4772,21 @@
         <v>11</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>30</v>
@@ -4435,7 +4795,7 @@
         <v>11</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>118</v>
@@ -4443,13 +4803,13 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>30</v>
@@ -4458,18 +4818,18 @@
         <v>11</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>30</v>
@@ -4478,21 +4838,21 @@
         <v>11</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>386</v>
+        <v>130</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>30</v>
@@ -4501,10 +4861,904 @@
         <v>11</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
